--- a/biology/Zoologie/Iberesia_castillana/Iberesia_castillana.xlsx
+++ b/biology/Zoologie/Iberesia_castillana/Iberesia_castillana.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Iberesia castillana est une espèce d'araignées mygalomorphes de la famille des Nemesiidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Iberesia castillana est une espèce d'araignées mygalomorphes de la famille des Nemesiidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique d'Espagne[1]. Elle se rencontre en Castille-et-León, en Castille-La Manche et en Andalousie[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique d'Espagne. Elle se rencontre en Castille-et-León, en Castille-La Manche et en Andalousie.
 </t>
         </is>
       </c>
@@ -542,10 +556,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le mâle holotype mesure 13 mm[3]
-Le mâle décrit par  en mesure 13,9 mm et la femelle 21,2 mm, les mâles mesurent de 9,6 à 15,8 mm et les femelles de 13,2 à 26,6 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le mâle holotype mesure 13 mm
+Le mâle décrit par  en mesure 13,9 mm et la femelle 21,2 mm, les mâles mesurent de 9,6 à 15,8 mm et les femelles de 13,2 à 26,6 mm.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Nemesia castillana par Frade et Bacelar en 1931. Elle est placée dans le genre Iberesia par Decae et Cardoso en 2006[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Nemesia castillana par Frade et Bacelar en 1931. Elle est placée dans le genre Iberesia par Decae et Cardoso en 2006.
 </t>
         </is>
       </c>
@@ -605,7 +623,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Son nom d'espèce lui a été donné en référence au lieu de sa découverte, la Castille.
 </t>
@@ -636,7 +656,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Frade &amp; Bacelar, 1931 : « Révision des Nemesia de la faune ibérique et description d'espèces nouvelles de ce genre. » Bulletin du Muséum national d'histoire naturelle de Paris, sér. 2, vol. 3, no 2, p. 222-238 (texte intégral).</t>
         </is>
